--- a/biology/Zoologie/Dectobrycon_armeniacus/Dectobrycon_armeniacus.xlsx
+++ b/biology/Zoologie/Dectobrycon_armeniacus/Dectobrycon_armeniacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dectobrycon armeniacus, unique représentant du genre Dectobrycon, est une espèce de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dectobrycon armeniacus est endémique du Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dectobrycon armeniacus est endémique du Pérou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dectobrycon armeniacus peut mesurer jusqu'à 66 mm, queue non comprise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dectobrycon armeniacus peut mesurer jusqu'à 66 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dectobrycon et l'espèce Dectobrycon armeniacus ont été décrits en 2006 par Axel Zarske (d) et Jacques Géry[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dectobrycon et l'espèce Dectobrycon armeniacus ont été décrits en 2006 par Axel Zarske (d) et Jacques Géry,.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Dectobrycon, se compose du grec ancien δεκτικός, dektikós, « mordant », ce qui fait allusion à l'attitude de ces poissons en captivité, et du suffixe -brycon fréquemment utilisé pour les Characidae[4]. 
-Son épithète spécifique, du latin armeniacus, « orange terne », fait référence à son nom vernaculaire anglais en aquariophilie, Apricot Tetra, qui lui-même fait référence à la couleur de ce poisson à l'état vivant[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Dectobrycon, se compose du grec ancien δεκτικός, dektikós, « mordant », ce qui fait allusion à l'attitude de ces poissons en captivité, et du suffixe -brycon fréquemment utilisé pour les Characidae. 
+Son épithète spécifique, du latin armeniacus, « orange terne », fait référence à son nom vernaculaire anglais en aquariophilie, Apricot Tetra, qui lui-même fait référence à la couleur de ce poisson à l'état vivant.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Axel Zarske et Jacques Géry, « Beschreibung einer neuen Salmler-Gattung und zweier neuer Arten (Teleostei: Characiformes: Characidae) aus Peru und Brasilien », Zoologische Abhandlungen, vol. 55,‎ 25 mai 2006, p. 31-49 (ISSN 0375-5231, lire en ligne)</t>
         </is>
